--- a/public/assets/template/tanding-template.xlsx
+++ b/public/assets/template/tanding-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ndejo\Documents\GitHub\simaps-ukasya\public\assets\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fitrailyasa\Documents\GitHub\simaps-ukasya\public\assets\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26623CB5-54FF-46D0-A2EB-25EC296BF044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643CE727-E427-40FE-AB77-167772AD12F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2550" yWindow="2550" windowWidth="15375" windowHeight="7875" xr2:uid="{51F6D04B-38A7-4907-901E-8D2AF0D93E74}"/>
+    <workbookView xWindow="3240" yWindow="3045" windowWidth="15375" windowHeight="7875" xr2:uid="{51F6D04B-38A7-4907-901E-8D2AF0D93E74}"/>
   </bookViews>
   <sheets>
     <sheet name="Lembar1" sheetId="1" r:id="rId1"/>
@@ -63,9 +63,6 @@
     <t>Remaja</t>
   </si>
   <si>
-    <t>L</t>
-  </si>
-  <si>
     <t>Mustavid</t>
   </si>
   <si>
@@ -73,6 +70,9 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>Putra</t>
   </si>
 </sst>
 </file>
@@ -163,7 +163,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -462,7 +462,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,7 +503,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1">
         <v>170</v>
@@ -512,10 +512,10 @@
         <v>60</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>8</v>
@@ -523,10 +523,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1">
         <v>180</v>
@@ -535,10 +535,10 @@
         <v>70</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>8</v>

--- a/public/assets/template/tanding-template.xlsx
+++ b/public/assets/template/tanding-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fitrailyasa\Documents\GitHub\simaps-ukasya\public\assets\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643CE727-E427-40FE-AB77-167772AD12F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4224B64-71AF-4EE4-BBE6-F850CB3AB7FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="3045" windowWidth="15375" windowHeight="7875" xr2:uid="{51F6D04B-38A7-4907-901E-8D2AF0D93E74}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{51F6D04B-38A7-4907-901E-8D2AF0D93E74}"/>
   </bookViews>
   <sheets>
     <sheet name="Lembar1" sheetId="1" r:id="rId1"/>
@@ -69,10 +69,10 @@
     <t>ASAD</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>Putra</t>
+  </si>
+  <si>
+    <t>Kelas A</t>
   </si>
 </sst>
 </file>
@@ -462,7 +462,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,7 +503,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1">
         <v>170</v>
@@ -515,7 +515,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>8</v>
@@ -526,7 +526,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1">
         <v>180</v>
@@ -538,7 +538,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>8</v>

--- a/public/assets/template/tanding-template.xlsx
+++ b/public/assets/template/tanding-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ndejo\Documents\GitHub\simaps-ukasya\public\assets\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fadil\Desktop\simaps-ukaya\public\assets\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26623CB5-54FF-46D0-A2EB-25EC296BF044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5517BE3-4C45-41F6-AEBC-8767E74CDC8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2550" yWindow="2550" windowWidth="15375" windowHeight="7875" xr2:uid="{51F6D04B-38A7-4907-901E-8D2AF0D93E74}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lembar1" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,183 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>OSIS SMK TRISUKSES</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>NAMA
+DI TULIS NAMA ATLET</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">JENIS KELAMIN
+P / L
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>BERAT BADAN 
+DI TULIS ANGKA
+CONTOH : 165
+BUKAN 165 CM</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>BERAT BADAN 
+DI TULIS BULATAN
+CONTOH: 55
+BUKAN 55,7 KG</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>KONTINGEN
+DITULIS 
+SEKOLAH/PERGURUAN/CLUB</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>KELAS 
+DI TULIS
+Kelas A
+Kelas B
+Kelas C
+Kelas D
+Kelas E
+Kelas F
+              sampai 
+Kelas S
+Open 1
+Open 2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Golongan
+di Tulis
+Usia Dini 1
+Usia Dini 2
+Pra Remaja
+Remaja
+Dewasa
+Master</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
@@ -72,14 +249,14 @@
     <t>ASAD</t>
   </si>
   <si>
-    <t>A</t>
+    <t>Kelas A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +271,25 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -458,24 +654,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A86521A1-DC6B-4F40-AA0D-147BEF52CF9B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -498,7 +694,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -521,7 +717,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -547,5 +743,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>